--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_attr6.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_attr6.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>insulin</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>diabetesmed</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>admission_source_id</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>a1cresult</t>
   </si>
   <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
     <t>diag_1</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>race</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,28 +82,28 @@
     <t>time_in_hospital</t>
   </si>
   <si>
+    <t>num_medications</t>
+  </si>
+  <si>
     <t>number_diagnoses</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>num_procedures</t>
   </si>
   <si>
-    <t>num_procedures</t>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>sum</t>
   </si>
   <si>
     <t>count</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.393473749761881</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.391035718856752</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.384764292107448</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.377642272269409</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1.377304071174829</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.37708759886146</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.376820368316519</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1.376454627147145</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1.376454627147145</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1.376454627147145</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.376454627147145</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.376454627147145</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.376454627147145</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.376454627147145</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.376454627147145</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.374010173364305</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.338656042454521</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.334737210373442</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -798,13 +798,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>1.321578399153599</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>1.267270744347498</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.264911064067352</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.253566341056017</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.246271033668721</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.233085712508793</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.230729355400828</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.228985112878067</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.228522044503623</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <v>1.224744871391589</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>1.224744871391589</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>1.214664495268374</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>1.209283089850284</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1022,10 +1022,10 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>1.207843744115241</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1039,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7500537615139933</v>
+        <v>0.8487058360904589</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1056,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7307623453915623</v>
+        <v>0.7959570547229162</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1073,10 +1073,10 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7262931926582897</v>
+        <v>0.7900471030777614</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1090,10 +1090,10 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7239737088005909</v>
+        <v>0.7547868957111877</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>0.71117831223688</v>
+        <v>0.7438637868140466</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.7068596706491442</v>
+        <v>0.7430748068657186</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.7031181906531532</v>
+        <v>0.7263809148866636</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>0.6872527804096473</v>
+        <v>0.7241095855741746</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.6675645346380819</v>
+        <v>0.7228957524267323</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6604785265684048</v>
+        <v>0.7194556355970222</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0.6533217188282378</v>
+        <v>0.5987408170800917</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.6327526687811155</v>
+        <v>0.5914135500457709</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.6292884839276784</v>
+        <v>0.5713132101387425</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.6188269912489592</v>
+        <v>0.5684453374035703</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>0.6146991255042827</v>
+        <v>0.5517586107162117</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>0.6033991075179722</v>
+        <v>0.5317309111252466</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.5995511971751014</v>
+        <v>0.5263768734677365</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5961549268974564</v>
+        <v>0.5163977794943222</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>0.5871642911161277</v>
+        <v>0.5032971757045256</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0.5823538797532827</v>
+        <v>0.4940776957988529</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.5723356008069435</v>
+        <v>0.4811568970954887</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.5647290668266677</v>
+        <v>0.4765566357802891</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E56">
-        <v>0.5433581647846062</v>
+        <v>0.4754611157338742</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.5332837278518203</v>
+        <v>0.4534648332088833</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.5295952604102857</v>
+        <v>0.4499318363728728</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59">
-        <v>0.5239368319955838</v>
+        <v>0.4419257545262127</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.5215781300322669</v>
+        <v>0.429197537639476</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,7 +1492,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -1501,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="E61">
-        <v>0.515876954571596</v>
+        <v>0.426084810614435</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.5102209391611129</v>
+        <v>0.4181629197953908</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>0.5096471914376256</v>
+        <v>0.3952210494632192</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1549,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.506334787988964</v>
+        <v>0.3887965929604765</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.505645780836403</v>
+        <v>0.3788023124888797</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>0.5024777880939231</v>
+        <v>0.3737412737209255</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.4959606955135183</v>
+        <v>0.3662638962662844</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.492813373627663</v>
+        <v>0.3651483716701107</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>0.488150180057939</v>
+        <v>0.3598472205991718</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.4864372824642725</v>
+        <v>0.3494510859560349</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.4803844614152614</v>
+        <v>0.3485285004152688</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1682,13 +1682,13 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
       </c>
       <c r="E72">
-        <v>0.4781662161524943</v>
+        <v>0.3459375012987885</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.4654746681256314</v>
+        <v>0.3440026890086285</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.464020568405019</v>
+        <v>0.3364004549735963</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0.4614893507304252</v>
+        <v>0.3312685755395665</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1750,13 +1750,13 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.4598850431070391</v>
+        <v>0.3307947422602502</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77">
-        <v>0.4562288859553836</v>
+        <v>0.3266991706626425</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.4532937800666557</v>
+        <v>0.3252370731739693</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>0.4512901840332928</v>
+        <v>0.3249638995070167</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>0.4481290797651359</v>
+        <v>0.3245593517281407</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.4337105512706033</v>
+        <v>0.3209065748941554</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,7 +1849,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>20</v>
@@ -1858,7 +1858,7 @@
         <v>28</v>
       </c>
       <c r="E82">
-        <v>0.4307890391102054</v>
+        <v>0.3208899004184888</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="E83">
-        <v>0.4289654448618502</v>
+        <v>0.3132877752820487</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.4284540510139488</v>
+        <v>0.3072540938461649</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
       </c>
       <c r="E85">
-        <v>0.4249928623467866</v>
+        <v>0.2989721500897309</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.4228589041693597</v>
+        <v>0.2980543469164636</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
       </c>
       <c r="E87">
-        <v>0.4213550841652105</v>
+        <v>0.2915094280401637</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.4192514913303321</v>
+        <v>0.2898071408491247</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.4183300132670378</v>
+        <v>0.2812033468426445</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>0.4150087570579686</v>
+        <v>0.278413316371918</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
       </c>
       <c r="E91">
-        <v>0.4109836529902497</v>
+        <v>0.2770215238936968</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
         <v>28</v>
       </c>
       <c r="E92">
-        <v>0.4106746624700412</v>
+        <v>0.2718855126867487</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E93">
-        <v>0.3972613599984832</v>
+        <v>0.2706917860764304</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>0.3971051659084169</v>
+        <v>0.2702509103270729</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="E95">
-        <v>0.3911838048957997</v>
+        <v>0.2649003338334187</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2090,13 +2090,13 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.3762963140786259</v>
+        <v>0.2641100501677757</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>0.3682536707835356</v>
+        <v>0.2573671448230653</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
         <v>28</v>
       </c>
       <c r="E98">
-        <v>0.3673764744080992</v>
+        <v>0.2563293085419506</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2141,13 +2141,13 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>0.3651483716701107</v>
+        <v>0.2528257824533889</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.3629040457272814</v>
+        <v>0.2507879398353006</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
         <v>28</v>
       </c>
       <c r="E101">
-        <v>0.3618437935503812</v>
+        <v>0.2462158780929908</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.3598790909602232</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.3568470885715205</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.3547952098172959</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.3427085094204725</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.3413140504366858</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.3409145938362818</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="E108">
-        <v>0.3382558587611904</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E109">
-        <v>0.3375251472923411</v>
+        <v>0.2449381963606851</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E110">
-        <v>0.3365249439981086</v>
+        <v>0.2439682952175745</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2345,13 +2345,13 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
       </c>
       <c r="E111">
-        <v>0.3362065226473854</v>
+        <v>0.24000450140781</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>0.3301296285899406</v>
+        <v>0.2348880878058813</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.3299540385765786</v>
+        <v>0.2337150934618217</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E114">
-        <v>0.3253903311655227</v>
+        <v>0.2297018025270508</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
       </c>
       <c r="E115">
-        <v>0.3210763720532266</v>
+        <v>0.2280499224714173</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>0.3176974614607954</v>
+        <v>0.2264917525530462</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.3140289380821394</v>
+        <v>0.2251367455199407</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
       </c>
       <c r="E118">
-        <v>0.310247404526618</v>
+        <v>0.224452102565149</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.3059577903963643</v>
+        <v>0.2203254169401555</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>0.305586672542476</v>
+        <v>0.2199123123693089</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>0.304688485714724</v>
+        <v>0.2136933472265608</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
         <v>26</v>
       </c>
       <c r="E122">
-        <v>0.3033446177271372</v>
+        <v>0.2126662596964941</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E123">
-        <v>0.3019975523160844</v>
+        <v>0.2119876029199975</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124">
-        <v>0.3004978294001144</v>
+        <v>0.2118675698595318</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E125">
-        <v>0.2979523114302695</v>
+        <v>0.2100795332798747</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E126">
-        <v>0.2979512167174452</v>
+        <v>0.2067245576486808</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2966540002188606</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2938805031806702</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>25</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2898067710498642</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2897555952669563</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2886966074777386</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2886096719832393</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2825776198537091</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2818618578418533</v>
+        <v>0.2066780439662617</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
         <v>28</v>
       </c>
       <c r="E135">
-        <v>0.2815571653377693</v>
+        <v>0.2055056633239924</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2807519546638201</v>
+        <v>0.204526189876968</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2784230231948522</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
         <v>29</v>
       </c>
       <c r="E138">
-        <v>0.276611136949672</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2761804584187696</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2838,13 +2838,13 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2752409412815902</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2752409412815902</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2746391254695232</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2743198623383549</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
         <v>29</v>
       </c>
       <c r="E144">
-        <v>0.2738875348941781</v>
+        <v>0.2040315127646066</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2635510314191375</v>
+        <v>0.2036356443310842</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2615228943138643</v>
+        <v>0.2025814676876002</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0.2615228943138643</v>
+        <v>0.2021546846426797</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2615228943138643</v>
+        <v>0.2021161185087622</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E149">
-        <v>0.2615228943138643</v>
+        <v>0.2008997621935447</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2615228943138643</v>
+        <v>0.2003345201953981</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2615228943138643</v>
+        <v>0.1996421738559823</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E152">
-        <v>0.2615228943138643</v>
+        <v>0.1994207060771501</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2615228943138643</v>
+        <v>0.1991816254025819</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2583961516554</v>
+        <v>0.1989773661559958</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,7 +3090,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
         <v>18</v>
@@ -3099,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="E155">
-        <v>0.2576968758179762</v>
+        <v>0.1954295792476521</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>0.257474627760179</v>
+        <v>0.1948043068022828</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3127,13 +3127,13 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2568136860584615</v>
+        <v>0.19465538482691</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.2560109186976064</v>
+        <v>0.193375486143204</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.255736039382229</v>
+        <v>0.1923065382341617</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E160">
-        <v>0.2551115290686377</v>
+        <v>0.1913380188774234</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.2532042694789054</v>
+        <v>0.1854890867527107</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E162">
-        <v>0.2530548758059474</v>
+        <v>0.1834118022284168</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E163">
-        <v>0.2528419350158573</v>
+        <v>0.1826555554726026</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.2526536200116615</v>
+        <v>0.180555544486683</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2523639254174098</v>
+        <v>0.1801377153755571</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3280,13 +3280,13 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E166">
-        <v>0.2507313304469041</v>
+        <v>0.1801065133868944</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E167">
-        <v>0.2417757927064313</v>
+        <v>0.1791918922200272</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
       </c>
       <c r="E168">
-        <v>0.2402266997518831</v>
+        <v>0.1783413600394136</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3337,7 +3337,7 @@
         <v>26</v>
       </c>
       <c r="E169">
-        <v>0.2390886152195157</v>
+        <v>0.1741417422651707</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
       </c>
       <c r="E170">
-        <v>0.2389068061429895</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E171">
-        <v>0.2337708237554849</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E172">
-        <v>0.2314908714236598</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E173">
-        <v>0.2305062555052981</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E174">
-        <v>0.2277724357127281</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
         <v>29</v>
       </c>
       <c r="E175">
-        <v>0.2273467267424563</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3450,13 +3450,13 @@
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E176">
-        <v>0.2265043952704113</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
         <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E177">
-        <v>0.226500297305149</v>
+        <v>0.1740788107825934</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.2243408690810373</v>
+        <v>0.171480367421889</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.2234921002354184</v>
+        <v>0.1699940298405397</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.2207851092988656</v>
+        <v>0.1680582548608194</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.2189679806163529</v>
+        <v>0.1677319165693696</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E182">
-        <v>0.216930457818656</v>
+        <v>0.1676973918079508</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.216488021928236</v>
+        <v>0.1660593512416407</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.2155546670388937</v>
+        <v>0.1635668833753093</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E185">
-        <v>0.2145533264810818</v>
+        <v>0.1630507407420722</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.2097115858154022</v>
+        <v>0.1624016885205985</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,7 +3634,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>18</v>
@@ -3643,7 +3643,7 @@
         <v>26</v>
       </c>
       <c r="E187">
-        <v>0.2084438945694855</v>
+        <v>0.1581102325218927</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.2077647935213073</v>
+        <v>0.1575148750214188</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.2056321527966675</v>
+        <v>0.1572775071556347</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
         <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E190">
-        <v>0.2038790810170311</v>
+        <v>0.1564952619475347</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E191">
-        <v>0.2037271640194173</v>
+        <v>0.155078420326394</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E192">
-        <v>0.2035430843670409</v>
+        <v>0.1544319194840001</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193">
-        <v>0.202027594098133</v>
+        <v>0.1530169310630438</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E194">
-        <v>0.2019806638104402</v>
+        <v>0.1529576321037596</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C195" t="s">
         <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.20185055088168</v>
+        <v>0.152766286513708</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.2008999315449397</v>
+        <v>0.1515181722772498</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
         <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.2007399802316694</v>
+        <v>0.1508543501006135</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.2006262830657612</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>29</v>
       </c>
       <c r="E199">
-        <v>0.2004042526652749</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1992144899859561</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1980383058949773</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1968720452707723</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.195196001812946</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1943610436760385</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1938704975705837</v>
+        <v>0.1482071209039853</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
       </c>
       <c r="E206">
-        <v>0.1937695713325584</v>
+        <v>0.1467006362926706</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1937695713325584</v>
+        <v>0.1466549768679102</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
       <c r="E208">
-        <v>0.1937695713325584</v>
+        <v>0.1413884024080756</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1937695713325584</v>
+        <v>0.1408727864583323</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1937695713325584</v>
+        <v>0.140818147319699</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E211">
-        <v>0.1937695713325584</v>
+        <v>0.1385205491159007</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1937695713325584</v>
+        <v>0.1380080945249591</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1937695713325584</v>
+        <v>0.1378867092217907</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1922555184865403</v>
+        <v>0.1375826926252851</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1913643168495067</v>
+        <v>0.1372638504345702</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1912639893072538</v>
+        <v>0.1371713274075256</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4147,13 +4147,13 @@
         <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E217">
-        <v>0.1909975615696811</v>
+        <v>0.1356284706129475</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E218">
-        <v>0.1897128946816724</v>
+        <v>0.1342312110428049</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
         <v>26</v>
       </c>
       <c r="E219">
-        <v>0.1883193979478502</v>
+        <v>0.1336044497638147</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
         <v>26</v>
       </c>
       <c r="E220">
-        <v>0.188025981606091</v>
+        <v>0.1328061402918986</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1864906587695419</v>
+        <v>0.1323949732571117</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>25</v>
       </c>
       <c r="D222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.1863372738425952</v>
+        <v>0.1321148757852357</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E223">
-        <v>0.1863372738425952</v>
+        <v>0.1311480102929136</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4266,13 +4266,13 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1863372738425952</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4283,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1863372738425952</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4300,13 +4300,13 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1863372738425952</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4317,13 +4317,13 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1863372738425952</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4334,13 +4334,13 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1863372738425952</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4351,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1863372738425952</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1860190389395567</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4385,13 +4385,13 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.185497633628858</v>
+        <v>0.1294884859420835</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1854034115650272</v>
+        <v>0.1289266424181826</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
         <v>26</v>
       </c>
       <c r="E233">
-        <v>0.1839917811152043</v>
+        <v>0.1287393944661716</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E234">
-        <v>0.183344720341832</v>
+        <v>0.1258318340842688</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
         <v>26</v>
       </c>
       <c r="E235">
-        <v>0.1822782153003892</v>
+        <v>0.1250341341712053</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
         <v>26</v>
       </c>
       <c r="E236">
-        <v>0.1821658103348533</v>
+        <v>0.1249048666060252</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4487,13 +4487,13 @@
         <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E237">
-        <v>0.1813136488494721</v>
+        <v>0.123404068004694</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1811609757306249</v>
+        <v>0.1231866386998297</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E239">
-        <v>0.1803339269334866</v>
+        <v>0.1230914909793327</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1796144945068586</v>
+        <v>0.1226963632737377</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E241">
-        <v>0.1796144945068586</v>
+        <v>0.122167939287425</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>0.1796144945068586</v>
+        <v>0.120816751003111</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E243">
-        <v>0.1796144945068586</v>
+        <v>0.1201483288662034</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E244">
-        <v>0.1796144945068586</v>
+        <v>0.1199558084672045</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E245">
-        <v>0.1796144945068586</v>
+        <v>0.1189001285203033</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E246">
-        <v>0.1796144945068586</v>
+        <v>0.1169651776146464</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E247">
-        <v>0.1796144945068586</v>
+        <v>0.1168858646179382</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4680,7 +4680,7 @@
         <v>26</v>
       </c>
       <c r="E248">
-        <v>0.1787136027725922</v>
+        <v>0.1168100400303363</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D249" t="s">
         <v>26</v>
       </c>
       <c r="E249">
-        <v>0.1784883657551227</v>
+        <v>0.1162859291827111</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1783477735682411</v>
+        <v>0.115632413970116</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1780206576647213</v>
+        <v>0.1151697444985078</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D252" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1780206576647213</v>
+        <v>0.1148534997493581</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E253">
-        <v>0.1780206576647213</v>
+        <v>0.1146369941192431</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D254" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1780206576647213</v>
+        <v>0.113571416576899</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>23</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1780206576647213</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1780206576647213</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>24</v>
       </c>
       <c r="D257" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E257">
-        <v>0.1780206576647213</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D258" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1780206576647213</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4861,13 +4861,13 @@
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
         <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1753639785414826</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.175079808214657</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1730491947856924</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1723345892416715</v>
+        <v>0.1126004765734703</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.170098218723094</v>
+        <v>0.1121377271581671</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.1691338550368069</v>
+        <v>0.111600414270617</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E265">
-        <v>0.1681673949391386</v>
+        <v>0.11155563328049</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E266">
-        <v>0.1664595500628983</v>
+        <v>0.1109960495301326</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D267" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.1660193534748114</v>
+        <v>0.1108236524997676</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D268" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1617942702846873</v>
+        <v>0.1107195608916162</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1601416135077071</v>
+        <v>0.110663518339218</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E270">
-        <v>0.1574475364626879</v>
+        <v>0.1102353303446276</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D271" t="s">
         <v>26</v>
       </c>
       <c r="E271">
-        <v>0.1555981593984225</v>
+        <v>0.1099580396304534</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5082,13 +5082,13 @@
         <v>17</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E272">
-        <v>0.1555425082885622</v>
+        <v>0.1096336460976276</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1546934901085168</v>
+        <v>0.1087173168889232</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E274">
-        <v>0.1546707243091857</v>
+        <v>0.1085279569655287</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1542862682938141</v>
+        <v>0.1082832807897941</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D276" t="s">
         <v>26</v>
       </c>
       <c r="E276">
-        <v>0.1531570587245973</v>
+        <v>0.1079448713419056</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E277">
-        <v>0.1513648502707603</v>
+        <v>0.1076707674431713</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D278" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E278">
-        <v>0.1508603723943339</v>
+        <v>0.107274921465191</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D279" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E279">
-        <v>0.1460715419944763</v>
+        <v>0.1065352729464174</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D280" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E280">
-        <v>0.1459371127266739</v>
+        <v>0.1044858517633748</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D281" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E281">
-        <v>0.1437776094950979</v>
+        <v>0.1034570651900523</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1434216179387753</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1423582422103001</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E284">
-        <v>0.1396930294031762</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C285" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1396930294031762</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D286" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1396930294031762</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1396930294031762</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D288" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1396930294031762</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C289" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1396930294031762</v>
+        <v>0.1026340401808288</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E290">
-        <v>0.1396930294031762</v>
+        <v>0.1009396463500704</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5405,13 +5405,13 @@
         <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1396930294031762</v>
+        <v>0.1003525981020006</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E292">
-        <v>0.1396131561610768</v>
+        <v>0.1000551625552583</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C293" t="s">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         <v>26</v>
       </c>
       <c r="E293">
-        <v>0.1395421867724662</v>
+        <v>0.0997643151445616</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1388291233669979</v>
+        <v>0.09905950905199744</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5473,13 +5473,13 @@
         <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E295">
-        <v>0.1384861662027063</v>
+        <v>0.0989607283065011</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5490,13 +5490,13 @@
         <v>17</v>
       </c>
       <c r="C296" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>0.135170947443977</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,7 +5504,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C297" t="s">
         <v>24</v>
@@ -5513,7 +5513,7 @@
         <v>29</v>
       </c>
       <c r="E297">
-        <v>0.1346109994066364</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C298" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D298" t="s">
         <v>29</v>
       </c>
       <c r="E298">
-        <v>0.1316336943032263</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E299">
-        <v>0.1288038948183418</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
         <v>29</v>
       </c>
       <c r="E300">
-        <v>0.1286691705594582</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5575,13 +5575,13 @@
         <v>17</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D301" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E301">
-        <v>0.1283265323683716</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5592,13 +5592,13 @@
         <v>17</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E302">
-        <v>0.1279776749774003</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
         <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1259645229356507</v>
+        <v>0.0982499944630536</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E304">
-        <v>0.1252130399549626</v>
+        <v>0.09800050121168238</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5643,13 +5643,13 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D305" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E305">
-        <v>0.1252130399549626</v>
+        <v>0.09790832436852341</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C306" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E306">
-        <v>0.1252130399549626</v>
+        <v>0.09661281918315602</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C307" t="s">
         <v>19</v>
       </c>
       <c r="D307" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E307">
-        <v>0.1252130399549626</v>
+        <v>0.09592824618809018</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5694,13 +5694,13 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E308">
-        <v>0.1252130399549626</v>
+        <v>0.09547325563730243</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.1252130399549626</v>
+        <v>0.09542802803932551</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D310" t="s">
         <v>27</v>
       </c>
       <c r="E310">
-        <v>0.1252130399549626</v>
+        <v>0.09534240678392289</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D311" t="s">
         <v>27</v>
       </c>
       <c r="E311">
-        <v>0.1252130399549626</v>
+        <v>0.09456177062942644</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C312" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E312">
-        <v>0.1243687494103144</v>
+        <v>0.09449299313188164</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5785,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="E313">
-        <v>0.1234853601066148</v>
+        <v>0.09270708738477827</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
         <v>26</v>
       </c>
       <c r="E314">
-        <v>0.1221778967520798</v>
+        <v>0.0919058446726323</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D315" t="s">
         <v>26</v>
       </c>
       <c r="E315">
-        <v>0.1221436562582562</v>
+        <v>0.08927194452162131</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.1218677220595381</v>
+        <v>0.08923194619589901</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5847,13 +5847,13 @@
         <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.1206384546914224</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E318">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D319" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E319">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D320" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E320">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D322" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E322">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E323">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C324" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D324" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E324">
-        <v>0.120540111743107</v>
+        <v>0.0889300047012473</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D325" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.120540111743107</v>
+        <v>0.08874399978223553</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E326">
-        <v>0.120152905012486</v>
+        <v>0.08777019764287664</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
         <v>22</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E327">
-        <v>0.1158764236133643</v>
+        <v>0.08750178984379489</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.115285922631837</v>
+        <v>0.08736454571552103</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C329" t="s">
         <v>23</v>
       </c>
       <c r="D329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.1150361804980313</v>
+        <v>0.08618895503347719</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D330" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.1138625552939745</v>
+        <v>0.08585561839452963</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D331" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E331">
-        <v>0.1135839798683683</v>
+        <v>0.08553019661681296</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C332" t="s">
         <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E332">
-        <v>0.1118117148655733</v>
+        <v>0.08541343375578896</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6119,13 +6119,13 @@
         <v>10</v>
       </c>
       <c r="C333" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.1100181208602402</v>
+        <v>0.08436199980155965</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D334" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E334">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C335" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E335">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C336" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E336">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D337" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E337">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D338" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E338">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D339" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E339">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D340" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E340">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D341" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E341">
-        <v>0.1094479478498411</v>
+        <v>0.08368879121668146</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E342">
-        <v>0.1056165593157184</v>
+        <v>0.08365094143642275</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.1056165593157184</v>
+        <v>0.08315844789470049</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.1056165593157184</v>
+        <v>0.08204799970505713</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E345">
-        <v>0.1056165593157184</v>
+        <v>0.08092473117629712</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.1056165593157184</v>
+        <v>0.07893994409461583</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D347" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.1056165593157184</v>
+        <v>0.07866028756249259</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D348" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.1056165593157184</v>
+        <v>0.07772715369761493</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D349" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.1056165593157184</v>
+        <v>0.07625072423345539</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
         <v>22</v>
       </c>
       <c r="D350" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E350">
-        <v>0.1046938555193725</v>
+        <v>0.07605879875542036</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D351" t="s">
         <v>26</v>
       </c>
       <c r="E351">
-        <v>0.1025170210870519</v>
+        <v>0.07498351299402896</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D352" t="s">
         <v>26</v>
       </c>
       <c r="E352">
-        <v>0.1024292751370643</v>
+        <v>0.0734116560849951</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.1020147954863878</v>
+        <v>0.07261928596395796</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E354">
-        <v>0.09984715632345507</v>
+        <v>0.07251782705373559</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E355">
-        <v>0.09921535466908148</v>
+        <v>0.0716607480223749</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
         <v>26</v>
       </c>
       <c r="E356">
-        <v>0.09679006504414979</v>
+        <v>0.06889125749999314</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D357" t="s">
         <v>26</v>
       </c>
       <c r="E357">
-        <v>0.09656150171322159</v>
+        <v>0.06796604930567499</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C358" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E358">
-        <v>0.09507880808040052</v>
+        <v>0.06746688553192007</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D359" t="s">
         <v>26</v>
       </c>
       <c r="E359">
-        <v>0.09267043981461474</v>
+        <v>0.06656585854489459</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C360" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.09103314966216919</v>
+        <v>0.06174388693377533</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
         <v>26</v>
       </c>
       <c r="E361">
-        <v>0.09095584295290664</v>
+        <v>0.05983468960611676</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,7 +6609,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C362" t="s">
         <v>24</v>
@@ -6618,7 +6618,7 @@
         <v>26</v>
       </c>
       <c r="E362">
-        <v>0.09035885186087292</v>
+        <v>0.05738235386997453</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C363" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E363">
-        <v>0.08886875248312066</v>
+        <v>0.05544674459116927</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E364">
-        <v>0.08780942234028831</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6663,13 +6663,13 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E365">
-        <v>0.08623194433481614</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D366" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E366">
-        <v>0.08573909217632764</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D367" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E367">
-        <v>0.08573909217632764</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D368" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E368">
-        <v>0.08573909217632764</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D369" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E369">
-        <v>0.08573909217632764</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E370">
-        <v>0.08573909217632764</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D371" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E371">
-        <v>0.08573909217632764</v>
+        <v>0.0515745522965031</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D372" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E372">
-        <v>0.08573909217632764</v>
+        <v>0.05090387564819432</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C373" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D373" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E373">
-        <v>0.08573909217632764</v>
+        <v>0.04866723511691873</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6816,13 +6816,13 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E374">
-        <v>0.08264438421580525</v>
+        <v>0.04679760325059182</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D375" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E375">
-        <v>0.07696573853530612</v>
+        <v>0.04448273261149421</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C376" t="s">
         <v>24</v>
@@ -6856,7 +6856,7 @@
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.0756088435197186</v>
+        <v>0.04442363713276732</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C377" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D377" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E377">
-        <v>0.07433529839051049</v>
+        <v>0.04332762101362252</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D378" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E378">
-        <v>0.07433529839051049</v>
+        <v>0.04264505156595023</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D379" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E379">
-        <v>0.07433529839051049</v>
+        <v>0.04088436703504378</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C380" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E380">
-        <v>0.07433529839051049</v>
+        <v>0.04038344738459299</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C381" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E381">
-        <v>0.07433529839051049</v>
+        <v>0.03750765759482712</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D382" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E382">
-        <v>0.07433529839051049</v>
+        <v>0.03717315484911008</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D383" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0.07433529839051049</v>
+        <v>0.03567506525888756</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C384" t="s">
         <v>23</v>
       </c>
       <c r="D384" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E384">
-        <v>0.07433529839051049</v>
+        <v>0.03456224555809985</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
         <v>21</v>
       </c>
       <c r="D385" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.07282701273217662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C386" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D386" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E386">
-        <v>0.07114210021657573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,16 +7034,16 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D387" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E387">
-        <v>0.06888796598446273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -7051,16 +7051,16 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C388" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D388" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E388">
-        <v>0.06691857315629104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7068,16 +7068,16 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C389" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D389" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E389">
-        <v>0.06561597147713806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7085,16 +7085,16 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C390" t="s">
         <v>25</v>
       </c>
       <c r="D390" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E390">
-        <v>0.06516780368604903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7102,16 +7102,16 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D391" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E391">
-        <v>0.06427770663711088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7119,16 +7119,16 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C392" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D392" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E392">
-        <v>0.06371741761436096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7136,16 +7136,16 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C393" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D393" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E393">
-        <v>0.05543417489097709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7153,16 +7153,16 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E394">
-        <v>0.04705349312354523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7176,10 +7176,10 @@
         <v>23</v>
       </c>
       <c r="D395" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E395">
-        <v>0.0449411566070809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7187,16 +7187,16 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E396">
-        <v>0.04262760792482128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7204,16 +7204,16 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C397" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D397" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E397">
-        <v>0.04077591456621578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7221,16 +7221,16 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C398" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D398" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E398">
-        <v>0.0317543508377789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7241,10 +7241,10 @@
         <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -7255,13 +7255,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C400" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D400" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -7272,13 +7272,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D401" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C402" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C403" t="s">
         <v>21</v>
       </c>
       <c r="D403" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C404" t="s">
         <v>25</v>
       </c>
       <c r="D404" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C405" t="s">
         <v>25</v>
       </c>
       <c r="D405" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -7357,13 +7357,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D406" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C407" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D407" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -7391,13 +7391,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C408" t="s">
         <v>21</v>
       </c>
       <c r="D408" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -7408,13 +7408,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C409" t="s">
         <v>21</v>
       </c>
       <c r="D409" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -7425,13 +7425,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -7459,13 +7459,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C412" t="s">
         <v>21</v>
       </c>
       <c r="D412" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -7476,13 +7476,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D413" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -7493,13 +7493,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D414" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C415" t="s">
         <v>25</v>
       </c>
       <c r="D415" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -7527,13 +7527,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C416" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D416" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -7544,13 +7544,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D417" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E417">
         <v>0</v>
